--- a/معدل - الدوال الاحصائية.xlsx
+++ b/معدل - الدوال الاحصائية.xlsx
@@ -8,23 +8,24 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\abukh\Downloads\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F99BD6AC-DC73-43CF-B3F4-BAC2B93DCB2C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DB88B8EC-B275-4783-B5EF-E0BF9ECFBAD9}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="13896" activeTab="8" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="13896" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
-    <sheet name="sumif" sheetId="17" r:id="rId1"/>
-    <sheet name="averageif" sheetId="16" r:id="rId2"/>
-    <sheet name="countif" sheetId="15" r:id="rId3"/>
-    <sheet name="sumproduct" sheetId="14" r:id="rId4"/>
-    <sheet name="subtotal" sheetId="13" r:id="rId5"/>
-    <sheet name="rank" sheetId="12" r:id="rId6"/>
-    <sheet name="large" sheetId="11" r:id="rId7"/>
-    <sheet name="small" sheetId="9" r:id="rId8"/>
-    <sheet name="الدوال الاحصائية" sheetId="1" r:id="rId9"/>
+    <sheet name="datedif" sheetId="18" r:id="rId1"/>
+    <sheet name="sumif" sheetId="17" r:id="rId2"/>
+    <sheet name="averageif" sheetId="16" r:id="rId3"/>
+    <sheet name="countif" sheetId="15" r:id="rId4"/>
+    <sheet name="sumproduct" sheetId="14" r:id="rId5"/>
+    <sheet name="subtotal" sheetId="13" r:id="rId6"/>
+    <sheet name="rank" sheetId="12" r:id="rId7"/>
+    <sheet name="large" sheetId="11" r:id="rId8"/>
+    <sheet name="small" sheetId="9" r:id="rId9"/>
+    <sheet name="الدوال الاحصائية" sheetId="1" r:id="rId10"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="4" hidden="1">subtotal!$A$1:$D$11</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="5" hidden="1">subtotal!$A$1:$D$11</definedName>
   </definedNames>
   <calcPr calcId="191029"/>
   <extLst>
@@ -44,7 +45,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="275" uniqueCount="70">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="281" uniqueCount="76">
   <si>
     <t>الاسم</t>
   </si>
@@ -254,13 +255,31 @@
   </si>
   <si>
     <t>اجمالي رواتب قسم موارد بشرية</t>
+  </si>
+  <si>
+    <t>تاريخ الميلاد</t>
+  </si>
+  <si>
+    <t>تاريخ اليوم</t>
+  </si>
+  <si>
+    <t>العمر</t>
+  </si>
+  <si>
+    <t>السنة</t>
+  </si>
+  <si>
+    <t>شهر</t>
+  </si>
+  <si>
+    <t>يوم</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="2" x14ac:knownFonts="1">
+  <fonts count="4" x14ac:knownFonts="1">
     <font>
       <sz val="10"/>
       <color rgb="FF000000"/>
@@ -273,8 +292,22 @@
       <name val="Arial"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <sz val="10"/>
+      <color theme="1"/>
+      <name val="Arial"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="10"/>
+      <color rgb="FF000000"/>
+      <name val="Arial"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
-  <fills count="3">
+  <fills count="4">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -287,8 +320,14 @@
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="2" tint="-0.249977111117893"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="1">
+  <borders count="2">
     <border>
       <left/>
       <right/>
@@ -296,31 +335,42 @@
       <bottom/>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="5">
+  <cellXfs count="11">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1"/>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="14" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="عادي" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="12">
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
+  <dxfs count="3">
     <dxf>
       <font>
         <color rgb="FF9C0006"/>
@@ -346,76 +396,6 @@
         <patternFill patternType="solid">
           <fgColor rgb="FFFFC7CE"/>
           <bgColor rgb="FF000000"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill patternType="solid">
-          <fgColor rgb="FFFFC7CE"/>
-          <bgColor rgb="FF000000"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill patternType="solid">
-          <fgColor rgb="FFFFC7CE"/>
-          <bgColor rgb="FF000000"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill patternType="solid">
-          <fgColor rgb="FFFFC7CE"/>
-          <bgColor rgb="FF000000"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill patternType="solid">
-          <fgColor rgb="FFFFC7CE"/>
-          <bgColor rgb="FF000000"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill patternType="solid">
-          <fgColor rgb="FFFFC7CE"/>
-          <bgColor rgb="FF000000"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
         </patternFill>
       </fill>
     </dxf>
@@ -629,11 +609,302 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{9A4316E3-2E2F-4563-AD89-F39BD6653CD6}">
+  <sheetPr>
+    <outlinePr summaryBelow="0" summaryRight="0"/>
+  </sheetPr>
+  <dimension ref="A1:G11"/>
+  <sheetViews>
+    <sheetView rightToLeft="1" tabSelected="1" workbookViewId="0">
+      <selection activeCell="F16" sqref="F16"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultColWidth="12.6640625" defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="6" max="6" width="20.77734375" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A1" s="1"/>
+      <c r="B1" s="1"/>
+      <c r="C1" s="1"/>
+      <c r="D1" s="1"/>
+    </row>
+    <row r="2" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A2" s="1"/>
+      <c r="B2" s="1"/>
+      <c r="C2" s="1"/>
+      <c r="D2" s="1"/>
+    </row>
+    <row r="3" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A3" s="1"/>
+      <c r="B3" s="1"/>
+      <c r="C3" s="1" t="s">
+        <v>70</v>
+      </c>
+      <c r="D3" s="5">
+        <v>36641</v>
+      </c>
+    </row>
+    <row r="4" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A4" s="1"/>
+      <c r="B4" s="1"/>
+      <c r="C4" s="6" t="s">
+        <v>71</v>
+      </c>
+      <c r="D4" s="5">
+        <f ca="1">TODAY()</f>
+        <v>45510</v>
+      </c>
+    </row>
+    <row r="5" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A5" s="1"/>
+      <c r="B5" s="1"/>
+      <c r="C5" s="1"/>
+      <c r="D5" s="1"/>
+    </row>
+    <row r="6" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A6" s="1"/>
+      <c r="B6" s="1"/>
+      <c r="C6" s="7"/>
+      <c r="D6" s="8" t="s">
+        <v>73</v>
+      </c>
+      <c r="E6" s="9" t="s">
+        <v>74</v>
+      </c>
+      <c r="F6" s="9" t="s">
+        <v>75</v>
+      </c>
+      <c r="G6" s="4"/>
+    </row>
+    <row r="7" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A7" s="1"/>
+      <c r="B7" s="1"/>
+      <c r="C7" s="8" t="s">
+        <v>72</v>
+      </c>
+      <c r="D7" s="7">
+        <f ca="1">DATEDIF(D3,D4,"y")</f>
+        <v>24</v>
+      </c>
+      <c r="E7" s="10">
+        <f ca="1">DATEDIF(D3,D4,"ym")</f>
+        <v>3</v>
+      </c>
+      <c r="F7" s="10">
+        <f ca="1">DATEDIF(D3,D4,"md")</f>
+        <v>12</v>
+      </c>
+      <c r="G7" s="4"/>
+    </row>
+    <row r="8" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A8" s="1"/>
+      <c r="B8" s="1"/>
+      <c r="C8" s="1"/>
+      <c r="D8" s="1"/>
+    </row>
+    <row r="9" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A9" s="1"/>
+      <c r="B9" s="1"/>
+      <c r="C9" s="1"/>
+      <c r="D9" s="1"/>
+    </row>
+    <row r="10" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A10" s="1"/>
+      <c r="B10" s="1"/>
+      <c r="C10" s="1"/>
+      <c r="D10" s="1"/>
+    </row>
+    <row r="11" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A11" s="1"/>
+      <c r="B11" s="1"/>
+      <c r="C11" s="1"/>
+      <c r="D11" s="1"/>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet10.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+  <sheetPr>
+    <outlinePr summaryBelow="0" summaryRight="0"/>
+  </sheetPr>
+  <dimension ref="A1:D11"/>
+  <sheetViews>
+    <sheetView rightToLeft="1" workbookViewId="0">
+      <selection activeCell="G17" sqref="G17"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultColWidth="12.6640625" defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+  <sheetData>
+    <row r="1" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A1" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="D1" s="1" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="2" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A2" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="B2" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="C2" s="1">
+        <v>25000</v>
+      </c>
+      <c r="D2" s="1">
+        <v>4.5</v>
+      </c>
+    </row>
+    <row r="3" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A3" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="B3" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="C3" s="1">
+        <v>28000</v>
+      </c>
+      <c r="D3" s="1">
+        <v>3.8</v>
+      </c>
+    </row>
+    <row r="4" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A4" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="B4" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="C4" s="1">
+        <v>22000</v>
+      </c>
+      <c r="D4" s="1">
+        <v>4.2</v>
+      </c>
+    </row>
+    <row r="5" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A5" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="B5" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="C5" s="1">
+        <v>26500</v>
+      </c>
+      <c r="D5" s="1">
+        <v>4.8</v>
+      </c>
+    </row>
+    <row r="6" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A6" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="B6" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="C6" s="1">
+        <v>30000</v>
+      </c>
+      <c r="D6" s="1">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="7" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A7" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="B7" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="C7" s="1">
+        <v>27000</v>
+      </c>
+      <c r="D7" s="1">
+        <v>3.5</v>
+      </c>
+    </row>
+    <row r="8" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A8" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="B8" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="C8" s="1">
+        <v>23500</v>
+      </c>
+      <c r="D8" s="1">
+        <v>4.5999999999999996</v>
+      </c>
+    </row>
+    <row r="9" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A9" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="B9" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="C9" s="1">
+        <v>24000</v>
+      </c>
+      <c r="D9" s="1">
+        <v>4.0999999999999996</v>
+      </c>
+    </row>
+    <row r="10" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A10" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="B10" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="C10" s="1">
+        <v>29000</v>
+      </c>
+      <c r="D10" s="1">
+        <v>3.9</v>
+      </c>
+    </row>
+    <row r="11" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A11" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="B11" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="C11" s="1">
+        <v>28500</v>
+      </c>
+      <c r="D11" s="1">
+        <v>4.3</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{08273AD0-0AA7-4BF0-9DE6-02577D18C889}">
   <sheetPr>
     <outlinePr summaryBelow="0" summaryRight="0"/>
   </sheetPr>
-  <dimension ref="A1:H11"/>
+  <dimension ref="A1:G11"/>
   <sheetViews>
     <sheetView rightToLeft="1" workbookViewId="0">
       <selection activeCell="O11" sqref="O11"/>
@@ -644,7 +915,7 @@
     <col min="6" max="6" width="20.77734375" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -658,7 +929,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="2" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A2" s="1" t="s">
         <v>4</v>
       </c>
@@ -672,7 +943,7 @@
         <v>4.5</v>
       </c>
     </row>
-    <row r="3" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A3" s="1" t="s">
         <v>6</v>
       </c>
@@ -686,7 +957,7 @@
         <v>3.8</v>
       </c>
     </row>
-    <row r="4" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A4" s="1" t="s">
         <v>8</v>
       </c>
@@ -700,7 +971,7 @@
         <v>4.2</v>
       </c>
     </row>
-    <row r="5" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A5" s="1" t="s">
         <v>10</v>
       </c>
@@ -714,7 +985,7 @@
         <v>4.8</v>
       </c>
     </row>
-    <row r="6" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A6" s="1" t="s">
         <v>11</v>
       </c>
@@ -735,7 +1006,7 @@
         <v>75500</v>
       </c>
     </row>
-    <row r="7" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A7" s="1" t="s">
         <v>13</v>
       </c>
@@ -752,9 +1023,8 @@
         <v>69</v>
       </c>
       <c r="G7" s="2"/>
-      <c r="H7" s="3"/>
-    </row>
-    <row r="8" spans="1:8" x14ac:dyDescent="0.25">
+    </row>
+    <row r="8" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A8" s="1" t="s">
         <v>14</v>
       </c>
@@ -767,10 +1037,8 @@
       <c r="D8" s="1">
         <v>4.5999999999999996</v>
       </c>
-      <c r="G8" s="3"/>
-      <c r="H8" s="3"/>
-    </row>
-    <row r="9" spans="1:8" x14ac:dyDescent="0.25">
+    </row>
+    <row r="9" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A9" s="1" t="s">
         <v>15</v>
       </c>
@@ -783,10 +1051,8 @@
       <c r="D9" s="1">
         <v>4.0999999999999996</v>
       </c>
-      <c r="G9" s="3"/>
-      <c r="H9" s="3"/>
-    </row>
-    <row r="10" spans="1:8" x14ac:dyDescent="0.25">
+    </row>
+    <row r="10" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A10" s="1" t="s">
         <v>16</v>
       </c>
@@ -800,7 +1066,7 @@
         <v>3.9</v>
       </c>
     </row>
-    <row r="11" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A11" s="1" t="s">
         <v>17</v>
       </c>
@@ -819,7 +1085,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{9B8F6A7E-ACB6-47A3-9A7B-7E21505229D6}">
   <sheetPr>
     <outlinePr summaryBelow="0" summaryRight="0"/>
@@ -1005,7 +1271,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E3CDEC4E-F6EA-4292-B8EE-C92138763ECD}">
   <sheetPr>
     <outlinePr summaryBelow="0" summaryRight="0"/>
@@ -1187,7 +1453,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{894BFDEB-11FF-45BC-B59F-C16457BA046F}">
   <sheetPr>
     <outlinePr summaryBelow="0" summaryRight="0"/>
@@ -1204,7 +1470,7 @@
     <col min="10" max="10" width="12.33203125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:10" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>24</v>
       </c>
@@ -1224,7 +1490,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="2" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:10" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A2" s="1">
         <v>44927</v>
       </c>
@@ -1244,7 +1510,7 @@
         <v>2500</v>
       </c>
     </row>
-    <row r="3" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:10" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A3" s="1">
         <v>44928</v>
       </c>
@@ -1264,7 +1530,7 @@
         <v>150</v>
       </c>
     </row>
-    <row r="4" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:10" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A4" s="1">
         <v>44929</v>
       </c>
@@ -1284,7 +1550,7 @@
         <v>800</v>
       </c>
     </row>
-    <row r="5" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:10" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A5" s="1">
         <v>44930</v>
       </c>
@@ -1304,7 +1570,7 @@
         <v>3500</v>
       </c>
     </row>
-    <row r="6" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:10" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A6" s="1">
         <v>44931</v>
       </c>
@@ -1324,7 +1590,7 @@
         <v>2000</v>
       </c>
     </row>
-    <row r="7" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:10" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A7" s="1">
         <v>44932</v>
       </c>
@@ -1344,7 +1610,7 @@
         <v>280</v>
       </c>
     </row>
-    <row r="8" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:10" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A8" s="1">
         <v>44933</v>
       </c>
@@ -1371,7 +1637,7 @@
         <v>201370</v>
       </c>
     </row>
-    <row r="9" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:10" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A9" s="1">
         <v>44934</v>
       </c>
@@ -1391,7 +1657,7 @@
         <v>3200</v>
       </c>
     </row>
-    <row r="10" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:10" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A10" s="1">
         <v>44935</v>
       </c>
@@ -1411,7 +1677,7 @@
         <v>300</v>
       </c>
     </row>
-    <row r="11" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:10" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A11" s="1">
         <v>44936</v>
       </c>
@@ -1636,7 +1902,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{82717D2A-50AD-491D-94DC-DCD5582DDF5B}">
   <sheetPr>
     <outlinePr summaryBelow="0" summaryRight="0"/>
@@ -1652,7 +1918,7 @@
     <col min="2" max="2" width="18" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:4" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -1666,7 +1932,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="2" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:4" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A2" s="1" t="s">
         <v>6</v>
       </c>
@@ -1680,7 +1946,7 @@
         <v>3.8</v>
       </c>
     </row>
-    <row r="3" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:4" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A3" s="1" t="s">
         <v>10</v>
       </c>
@@ -1694,7 +1960,7 @@
         <v>4.8</v>
       </c>
     </row>
-    <row r="4" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:4" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A4" s="1" t="s">
         <v>11</v>
       </c>
@@ -1708,7 +1974,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="5" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:4" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A5" s="1" t="s">
         <v>13</v>
       </c>
@@ -1722,7 +1988,7 @@
         <v>3.5</v>
       </c>
     </row>
-    <row r="6" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:4" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A6" s="1" t="s">
         <v>16</v>
       </c>
@@ -1736,7 +2002,7 @@
         <v>3.9</v>
       </c>
     </row>
-    <row r="7" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:4" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A7" s="1" t="s">
         <v>17</v>
       </c>
@@ -1750,7 +2016,7 @@
         <v>4.3</v>
       </c>
     </row>
-    <row r="8" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:4" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A8" s="1" t="s">
         <v>4</v>
       </c>
@@ -1764,7 +2030,7 @@
         <v>4.5</v>
       </c>
     </row>
-    <row r="9" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:4" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A9" s="1" t="s">
         <v>8</v>
       </c>
@@ -1778,7 +2044,7 @@
         <v>4.2</v>
       </c>
     </row>
-    <row r="10" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:4" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A10" s="1" t="s">
         <v>14</v>
       </c>
@@ -1792,7 +2058,7 @@
         <v>4.5999999999999996</v>
       </c>
     </row>
-    <row r="11" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:4" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A11" s="1" t="s">
         <v>15</v>
       </c>
@@ -1816,13 +2082,13 @@
       </c>
     </row>
     <row r="13" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B13" s="4" t="s">
+      <c r="B13" s="3" t="s">
         <v>66</v>
       </c>
       <c r="C13" s="2"/>
     </row>
     <row r="14" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B14" s="4" t="s">
+      <c r="B14" s="3" t="s">
         <v>67</v>
       </c>
       <c r="C14" s="2"/>
@@ -1830,17 +2096,14 @@
   </sheetData>
   <autoFilter ref="A1:D11" xr:uid="{82717D2A-50AD-491D-94DC-DCD5582DDF5B}">
     <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:D11">
-      <sortCondition sortBy="cellColor" ref="C1:C11" dxfId="4"/>
+      <sortCondition sortBy="cellColor" ref="C1:C11" dxfId="2"/>
     </sortState>
   </autoFilter>
   <conditionalFormatting sqref="C2:C11">
-    <cfRule type="cellIs" dxfId="2" priority="1" operator="greaterThan">
+    <cfRule type="cellIs" dxfId="1" priority="1" operator="greaterThan">
       <formula>26000</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="1" priority="2" operator="greaterThan">
-      <formula>30000</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="0" priority="3" operator="greaterThan">
+    <cfRule type="cellIs" dxfId="0" priority="2" operator="greaterThan">
       <formula>30000</formula>
     </cfRule>
   </conditionalFormatting>
@@ -1848,7 +2111,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{8998232A-F961-4803-982A-74CD83000896}">
   <sheetPr>
     <outlinePr summaryBelow="0" summaryRight="0"/>
@@ -2034,7 +2297,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E477F7F3-F336-46C4-BA62-3A1B7B17EED6}">
   <sheetPr>
     <outlinePr summaryBelow="0" summaryRight="0"/>
@@ -2227,7 +2490,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{8E629F83-9D5A-4ED5-9BF2-47A1FABED33C}">
   <sheetPr>
     <outlinePr summaryBelow="0" summaryRight="0"/>
@@ -2418,176 +2681,4 @@
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
-</file>
-
-<file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <sheetPr>
-    <outlinePr summaryBelow="0" summaryRight="0"/>
-  </sheetPr>
-  <dimension ref="A1:D11"/>
-  <sheetViews>
-    <sheetView rightToLeft="1" tabSelected="1" workbookViewId="0">
-      <selection activeCell="G17" sqref="G17"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultColWidth="12.6640625" defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-  <sheetData>
-    <row r="1" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A1" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="B1" s="1" t="s">
-        <v>1</v>
-      </c>
-      <c r="C1" s="1" t="s">
-        <v>2</v>
-      </c>
-      <c r="D1" s="1" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="2" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A2" s="1" t="s">
-        <v>4</v>
-      </c>
-      <c r="B2" s="1" t="s">
-        <v>5</v>
-      </c>
-      <c r="C2" s="1">
-        <v>25000</v>
-      </c>
-      <c r="D2" s="1">
-        <v>4.5</v>
-      </c>
-    </row>
-    <row r="3" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A3" s="1" t="s">
-        <v>6</v>
-      </c>
-      <c r="B3" s="1" t="s">
-        <v>7</v>
-      </c>
-      <c r="C3" s="1">
-        <v>28000</v>
-      </c>
-      <c r="D3" s="1">
-        <v>3.8</v>
-      </c>
-    </row>
-    <row r="4" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A4" s="1" t="s">
-        <v>8</v>
-      </c>
-      <c r="B4" s="1" t="s">
-        <v>9</v>
-      </c>
-      <c r="C4" s="1">
-        <v>22000</v>
-      </c>
-      <c r="D4" s="1">
-        <v>4.2</v>
-      </c>
-    </row>
-    <row r="5" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A5" s="1" t="s">
-        <v>10</v>
-      </c>
-      <c r="B5" s="1" t="s">
-        <v>5</v>
-      </c>
-      <c r="C5" s="1">
-        <v>26500</v>
-      </c>
-      <c r="D5" s="1">
-        <v>4.8</v>
-      </c>
-    </row>
-    <row r="6" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A6" s="1" t="s">
-        <v>11</v>
-      </c>
-      <c r="B6" s="1" t="s">
-        <v>12</v>
-      </c>
-      <c r="C6" s="1">
-        <v>30000</v>
-      </c>
-      <c r="D6" s="1">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="7" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A7" s="1" t="s">
-        <v>13</v>
-      </c>
-      <c r="B7" s="1" t="s">
-        <v>7</v>
-      </c>
-      <c r="C7" s="1">
-        <v>27000</v>
-      </c>
-      <c r="D7" s="1">
-        <v>3.5</v>
-      </c>
-    </row>
-    <row r="8" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A8" s="1" t="s">
-        <v>14</v>
-      </c>
-      <c r="B8" s="1" t="s">
-        <v>9</v>
-      </c>
-      <c r="C8" s="1">
-        <v>23500</v>
-      </c>
-      <c r="D8" s="1">
-        <v>4.5999999999999996</v>
-      </c>
-    </row>
-    <row r="9" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A9" s="1" t="s">
-        <v>15</v>
-      </c>
-      <c r="B9" s="1" t="s">
-        <v>5</v>
-      </c>
-      <c r="C9" s="1">
-        <v>24000</v>
-      </c>
-      <c r="D9" s="1">
-        <v>4.0999999999999996</v>
-      </c>
-    </row>
-    <row r="10" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A10" s="1" t="s">
-        <v>16</v>
-      </c>
-      <c r="B10" s="1" t="s">
-        <v>12</v>
-      </c>
-      <c r="C10" s="1">
-        <v>29000</v>
-      </c>
-      <c r="D10" s="1">
-        <v>3.9</v>
-      </c>
-    </row>
-    <row r="11" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A11" s="1" t="s">
-        <v>17</v>
-      </c>
-      <c r="B11" s="1" t="s">
-        <v>7</v>
-      </c>
-      <c r="C11" s="1">
-        <v>28500</v>
-      </c>
-      <c r="D11" s="1">
-        <v>4.3</v>
-      </c>
-    </row>
-  </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-</worksheet>
 </file>